--- a/MY_TOOLS/eval_results.xlsx
+++ b/MY_TOOLS/eval_results.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23231"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python_Projects\mmd_rs\MY_TOOLS\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E56D63BB-DFE1-41FE-A1C8-9166C24F5ACA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>name</t>
   </si>
@@ -64,6 +58,9 @@
     <t>faster_rcnn_hbb_tv</t>
   </si>
   <si>
+    <t>pafpn_hbb_tv</t>
+  </si>
+  <si>
     <t>0.023 0.054 0.020 0.022 0.019 0.054</t>
   </si>
   <si>
@@ -80,17 +77,20 @@
   </si>
   <si>
     <t>0.415 0.689 0.473 0.299 0.418 0.499</t>
+  </si>
+  <si>
+    <t>0.423 0.697 0.488 0.303 0.429 0.512</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -98,15 +98,8 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -152,23 +145,15 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -210,7 +195,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -242,27 +227,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -294,24 +261,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -487,25 +436,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="2.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="39.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="78.77734375" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -531,7 +469,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -539,28 +477,28 @@
         <v>8</v>
       </c>
       <c r="C2">
-        <v>2.3E-2</v>
+        <v>0.023</v>
       </c>
       <c r="D2">
-        <v>5.3999999999999999E-2</v>
+        <v>0.054</v>
       </c>
       <c r="E2">
         <v>0.02</v>
       </c>
       <c r="F2">
-        <v>2.1999999999999999E-2</v>
+        <v>0.022</v>
       </c>
       <c r="G2">
-        <v>1.9E-2</v>
+        <v>0.019</v>
       </c>
       <c r="H2">
-        <v>5.3999999999999999E-2</v>
+        <v>0.054</v>
       </c>
       <c r="I2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -568,28 +506,28 @@
         <v>9</v>
       </c>
       <c r="C3">
-        <v>0.39600000000000002</v>
+        <v>0.396</v>
       </c>
       <c r="D3">
-        <v>0.67200000000000004</v>
+        <v>0.672</v>
       </c>
       <c r="E3">
-        <v>0.44600000000000001</v>
+        <v>0.446</v>
       </c>
       <c r="F3">
         <v>0.27</v>
       </c>
       <c r="G3">
-        <v>0.39800000000000002</v>
+        <v>0.398</v>
       </c>
       <c r="H3">
-        <v>0.46899999999999997</v>
+        <v>0.469</v>
       </c>
       <c r="I3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -597,28 +535,28 @@
         <v>10</v>
       </c>
       <c r="C4">
-        <v>0.40100000000000002</v>
+        <v>0.401</v>
       </c>
       <c r="D4">
-        <v>0.68400000000000005</v>
+        <v>0.6840000000000001</v>
       </c>
       <c r="E4">
-        <v>0.45700000000000002</v>
+        <v>0.457</v>
       </c>
       <c r="F4">
-        <v>0.27700000000000002</v>
+        <v>0.277</v>
       </c>
       <c r="G4">
-        <v>0.39800000000000002</v>
+        <v>0.398</v>
       </c>
       <c r="H4">
-        <v>0.47699999999999998</v>
+        <v>0.477</v>
       </c>
       <c r="I4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -626,28 +564,28 @@
         <v>11</v>
       </c>
       <c r="C5">
-        <v>0.42499999999999999</v>
+        <v>0.425</v>
       </c>
       <c r="D5">
-        <v>0.68500000000000005</v>
+        <v>0.6850000000000001</v>
       </c>
       <c r="E5">
-        <v>0.49199999999999999</v>
+        <v>0.492</v>
       </c>
       <c r="F5">
-        <v>0.28599999999999998</v>
+        <v>0.286</v>
       </c>
       <c r="G5">
-        <v>0.42299999999999999</v>
+        <v>0.423</v>
       </c>
       <c r="H5">
-        <v>0.52600000000000002</v>
+        <v>0.526</v>
       </c>
       <c r="I5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -655,28 +593,28 @@
         <v>12</v>
       </c>
       <c r="C6">
-        <v>0.38600000000000001</v>
+        <v>0.386</v>
       </c>
       <c r="D6">
-        <v>0.65200000000000002</v>
+        <v>0.652</v>
       </c>
       <c r="E6">
-        <v>0.42399999999999999</v>
+        <v>0.424</v>
       </c>
       <c r="F6">
         <v>0.255</v>
       </c>
       <c r="G6">
-        <v>0.39900000000000002</v>
+        <v>0.399</v>
       </c>
       <c r="H6">
-        <v>0.45900000000000002</v>
+        <v>0.459</v>
       </c>
       <c r="I6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -684,29 +622,57 @@
         <v>13</v>
       </c>
       <c r="C7">
-        <v>0.41499999999999998</v>
+        <v>0.415</v>
       </c>
       <c r="D7">
-        <v>0.68899999999999995</v>
+        <v>0.6889999999999999</v>
       </c>
       <c r="E7">
-        <v>0.47299999999999998</v>
+        <v>0.473</v>
       </c>
       <c r="F7">
-        <v>0.29899999999999999</v>
+        <v>0.299</v>
       </c>
       <c r="G7">
-        <v>0.41799999999999998</v>
+        <v>0.418</v>
       </c>
       <c r="H7">
         <v>0.499</v>
       </c>
       <c r="I7" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8">
+        <v>0.423</v>
+      </c>
+      <c r="D8">
+        <v>0.697</v>
+      </c>
+      <c r="E8">
+        <v>0.488</v>
+      </c>
+      <c r="F8">
+        <v>0.303</v>
+      </c>
+      <c r="G8">
+        <v>0.429</v>
+      </c>
+      <c r="H8">
+        <v>0.512</v>
+      </c>
+      <c r="I8" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>